--- a/SoftbankExcel/表單/SoftBankData_DBusing.xlsx
+++ b/SoftbankExcel/表單/SoftBankData_DBusing.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="251" documentId="6_{1BCC0ADC-C32E-4D4C-BEE1-018DFC72065C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDA1006B-72E2-42BD-A51A-36C0AB529164}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FactoryShipment" sheetId="7" r:id="rId1"/>
@@ -4385,8 +4385,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:L223"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -12479,8 +12479,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
